--- a/06_1_C_SES_excel_fittedvals_exercise.xlsx
+++ b/06_1_C_SES_excel_fittedvals_exercise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgp/Library/CloudStorage/GoogleDrive-jgarbayo@faculty.ie.edu/My Drive/IE_Classes/2023_Fall/TimeSeriesAnalysis/ZZ_Notebooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgp/Library/CloudStorage/GoogleDrive-jgarbayo@faculty.ie.edu/My Drive/IE_Classes/2024_Fall/TSA_Fall2024/TSA_Notebooks_Fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A55757-A45B-194D-83C2-C6C165FC777E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C808487B-4B24-2645-81F5-78D87F4FD2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22680" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Year</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>fitted_val</t>
+  </si>
+  <si>
+    <t>parameters</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>to be completed</t>
   </si>
 </sst>
 </file>
@@ -145,15 +154,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -302,25 +320,154 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>628311</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>120563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>349008</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>87251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F3EC634-0C66-3A43-9EEC-9C8ACBA62499}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628311" y="12529723"/>
+          <a:ext cx="1727491" cy="548368"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>This value is T in our notes (last</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> point with data)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>630153</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>48473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>145420</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>67863</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D08356F-6825-8749-B767-ADF5F5161112}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="630153" y="12069847"/>
+          <a:ext cx="184198" cy="407176"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>268197</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>465344</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>49167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
+        <xdr:cNvPr id="22" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27A3FC61-BBB4-9F43-BD3E-D264CF2BC273}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A3FFCB-457E-FA4A-9CEA-1809BCA0DC91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -336,15 +483,15 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4372290" y="387786"/>
-          <a:ext cx="4950716" cy="619780"/>
+          <a:off x="4372290" y="969466"/>
+          <a:ext cx="4168702" cy="630846"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -354,22 +501,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>281146</xdr:colOff>
+      <xdr:colOff>620457</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>184199</xdr:rowOff>
+      <xdr:rowOff>135726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="TextBox 15">
+        <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F1147DF-84C8-FE40-8DE8-3ED4E10DF433}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188F4596-5DF3-4A41-9522-FC02B77AD99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -377,8 +524,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4372291" y="1163359"/>
-          <a:ext cx="4963664" cy="959771"/>
+          <a:off x="4246260" y="1745038"/>
+          <a:ext cx="5661678" cy="329619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -413,249 +560,141 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>The forecast equation is particularized for </a:t>
+            <a:rPr lang="en-GB" sz="1300" kern="1200"/>
+            <a:t>Remember that fitted values are </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1"/>
-            <a:t>h=1</a:t>
+            <a:rPr lang="en-GB" sz="1300" b="1" kern="1200"/>
+            <a:t>one step-ahead</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0"/>
-            <a:t> (fitted</a:t>
+            <a:rPr lang="en-GB" sz="1300" b="1" kern="1200" baseline="0"/>
+            <a:t> forecasts on the training data.</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
-            <a:t> values are one-step ahead forecasts). It results in an equation at point </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
-            <a:t>t+1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
-            <a:t>The level equation is nonetheless particularized at </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
-            <a:t>t</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0"/>
-            <a:t>. To make both consistent, we use a change of variable on the forecast equation.</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1300" kern="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>16670</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>6981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>591374</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>94131</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>626251</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>191180</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="Group 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96627CCD-ACD0-124B-9F62-84B2565E7AF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F889F34D-BE65-FB44-8D9B-B5F1B2EEE0F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4372290" y="2326718"/>
-          <a:ext cx="3936031" cy="1063596"/>
+          <a:off x="4262930" y="2333699"/>
+          <a:ext cx="6319733" cy="3868168"/>
+          <a:chOff x="4246260" y="1745038"/>
+          <a:chExt cx="6319733" cy="3868168"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>46892</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19389</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{597A30DB-8F4F-B44B-9011-442421CA8182}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4372290" y="3490076"/>
-          <a:ext cx="4060480" cy="1376641"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>135518</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>136976</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C14F846-95D2-094C-B9B6-1C4602BAB032}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4372290" y="5041221"/>
-          <a:ext cx="2811243" cy="1494228"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>58168</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>106641</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>959771</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>164810</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE82D899-A573-0F1A-A856-01F353012180}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3402824" y="882214"/>
-          <a:ext cx="901603" cy="4323817"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="14" name="Picture 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20A3B391-E4FD-D673-F255-2F9132FEEDF2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4246260" y="1745038"/>
+            <a:ext cx="6319733" cy="3868168"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Rectangle 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4637DF9-4056-75D0-76B7-D19F93FB7ED8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5109084" y="5002443"/>
+            <a:ext cx="4546794" cy="581679"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-GB" sz="1100" kern="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -960,40 +999,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="K64" sqref="K64"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F1" s="5">
         <v>0.8399875</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1003,763 +1054,763 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>39.538999400000002</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <v>1960</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>39.043172595018</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="2">
         <v>1961</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>46.2445568889055</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="2">
         <v>1962</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>19.793872675119999</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="2">
         <v>1963</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>24.6846820545111</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>1964</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>25.0840587279266</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="2">
         <v>1965</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>22.6039435563255</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="2">
         <v>1966</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>25.986197517809099</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="2">
         <v>1967</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="3">
         <v>23.434416768712001</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="2">
         <v>1968</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="3">
         <v>23.135634603358699</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="2">
         <v>1969</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="3">
         <v>23.7887768242961</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="2">
         <v>1970</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="3">
         <v>22.0727334005425</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="2">
         <v>1971</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="3">
         <v>18.442519154139799</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="2">
         <v>1972</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="3">
         <v>20.4495619832458</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="2">
         <v>1973</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="3">
         <v>25.503663001274401</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="2">
         <v>15</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="2">
         <v>1974</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="3">
         <v>38.7490436138728</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="2">
         <v>16</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="2">
         <v>1975</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="3">
         <v>33.688936216292099</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="2">
         <v>1976</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="3">
         <v>33.054583925353597</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="2">
         <v>18</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="2">
         <v>1977</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="3">
         <v>30.586566930109999</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="2">
         <v>19</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="2">
         <v>1978</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="3">
         <v>25.535836721276699</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="2">
         <v>1979</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="3">
         <v>31.148300205341599</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="2">
         <v>21</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="2">
         <v>1980</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="3">
         <v>34.338461465789401</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="2">
         <v>22</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="2">
         <v>1981</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="3">
         <v>34.5872507738721</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="2">
         <v>23</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="2">
         <v>1982</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="3">
         <v>30.924856323020101</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="2">
         <v>24</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="2">
         <v>1983</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="3">
         <v>27.941806112034801</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="2">
         <v>25</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="2">
         <v>1984</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="3">
         <v>25.710016181984098</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="A30" s="2">
         <v>26</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="2">
         <v>1985</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="3">
         <v>23.5839328880834</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="A31" s="2">
         <v>27</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="2">
         <v>1986</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="3">
         <v>12.8547573361278</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="A32" s="2">
         <v>28</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="2">
         <v>1987</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="3">
         <v>14.272474725221601</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="A33" s="2">
         <v>29</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="2">
         <v>1988</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="3">
         <v>15.507867878641299</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="A34" s="2">
         <v>30</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="2">
         <v>1989</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="3">
         <v>18.639263335762699</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+      <c r="A35" s="2">
         <v>31</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="2">
         <v>1990</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="3">
         <v>23.4436850828471</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="A36" s="2">
         <v>32</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="2">
         <v>1991</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="3">
         <v>29.11782217052</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+      <c r="A37" s="2">
         <v>33</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="2">
         <v>1992</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="3">
         <v>25.319594279343701</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="A38" s="2">
         <v>34</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="2">
         <v>1993</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="3">
         <v>21.783876996166398</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+      <c r="A39" s="2">
         <v>35</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="2">
         <v>1994</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="3">
         <v>22.530725245238099</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+      <c r="A40" s="2">
         <v>36</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="2">
         <v>1995</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="3">
         <v>26.194775979055901</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+      <c r="A41" s="2">
         <v>37</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="2">
         <v>1996</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="3">
         <v>29.760448325184701</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="A42" s="2">
         <v>38</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="2">
         <v>1997</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="3">
         <v>30.906311379864501</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+      <c r="A43" s="2">
         <v>39</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="2">
         <v>1998</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="3">
         <v>22.578354009803899</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+      <c r="A44" s="2">
         <v>40</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="2">
         <v>1999</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="3">
         <v>28.150116498362799</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+      <c r="A45" s="2">
         <v>41</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="2">
         <v>2000</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="3">
         <v>42.069718323811799</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+      <c r="A46" s="2">
         <v>42</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="2">
         <v>2001</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="3">
         <v>36.689304752495602</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+      <c r="A47" s="2">
         <v>43</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="2">
         <v>2002</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="3">
         <v>35.504533105117503</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+      <c r="A48" s="2">
         <v>44</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="2">
         <v>2003</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="3">
         <v>38.248829107157199</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
+      <c r="A49" s="2">
         <v>45</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="2">
         <v>2004</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="3">
         <v>40.0532264952068</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
+      <c r="A50" s="2">
         <v>46</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="2">
         <v>2005</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="3">
         <v>47.205193239312997</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
+      <c r="A51" s="2">
         <v>47</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="2">
         <v>2006</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="3">
         <v>48.810688221486998</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+      <c r="A52" s="2">
         <v>48</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="2">
         <v>2007</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="3">
         <v>47.068163549001198</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
+      <c r="A53" s="2">
         <v>49</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="2">
         <v>2008</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="3">
         <v>47.9733451352038</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
+      <c r="A54" s="2">
         <v>50</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="2">
         <v>2009</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="3">
         <v>35.371650643135602</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
+      <c r="A55" s="2">
         <v>51</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="2">
         <v>2010</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="3">
         <v>38.444547845884799</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
+      <c r="A56" s="2">
         <v>52</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="2">
         <v>2011</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="3">
         <v>38.786953876113301</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
+      <c r="A57" s="2">
         <v>53</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="2">
         <v>2012</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="3">
         <v>36.8905475681754</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
+      <c r="A58" s="2">
         <v>54</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="2">
         <v>2013</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="3">
         <v>33.209897786624303</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="5">
+      <c r="A59" s="2">
         <v>55</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="2">
         <v>2014</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="3">
         <v>30.2191174257954</v>
       </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
+      <c r="A60" s="2">
         <v>56</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="2">
         <v>2015</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="3">
         <v>23.171778290716102</v>
       </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
+      <c r="A61" s="2">
         <v>57</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="2">
         <v>2016</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="3">
         <v>20.8600106281793</v>
       </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
+      <c r="A62" s="2">
         <v>58</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="2">
         <v>2017</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="3">
         <v>22.6388868549416</v>
       </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="3"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
